--- a/biology/Botanique/Itasina/Itasina.xlsx
+++ b/biology/Botanique/Itasina/Itasina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Itasina est un  genre monospécifique de plantes herbacées appartenant à la famille des Apiaceae. Il ne contient qu'une seule espèce Itasina filifolia, originaire de l'Afrique du Sud.
 </t>
@@ -511,18 +523,20 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le genre Itasina, est créé en 1840 par le naturaliste américain Constantine Samuel Rafinesque[1], spécialement pour  l'espèce Itasina filifolia, initialement décrite en 1794 par le naturaliste suédois Carl Peter Thunberg sous le nom Seseli filifolium au sein du genre Seseli[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le genre Itasina, est créé en 1840 par le naturaliste américain Constantine Samuel Rafinesque, spécialement pour  l'espèce Itasina filifolia, initialement décrite en 1794 par le naturaliste suédois Carl Peter Thunberg sous le nom Seseli filifolium au sein du genre Seseli.
 Synonymes
 du genre
-Thunbergiella H. Wolff, 1922[3]
+Thunbergiella H. Wolff, 1922
 de l'espèce
-Seseli filifolium Thunb., 1794 (basionyme)[4]
-Conium filifolium Vahl, 1794[5]
-Oenanthe dregeana E.Mey., 1843[6]
-Sium filifolium Thunb., 1794[6]
-Thunbergiella filiformis (Walter) H.Wolff, 1922[7]</t>
+Seseli filifolium Thunb., 1794 (basionyme)
+Conium filifolium Vahl, 1794
+Oenanthe dregeana E.Mey., 1843
+Sium filifolium Thunb., 1794
+Thunbergiella filiformis (Walter) H.Wolff, 1922</t>
         </is>
       </c>
     </row>
@@ -550,9 +564,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Itasina est présent en Afrique du Sud[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Itasina est présent en Afrique du Sud.
 </t>
         </is>
       </c>
